--- a/com.blackout.solarpanelcalculator/docs/BurndownChart Week 10.xlsx
+++ b/com.blackout.solarpanelcalculator/docs/BurndownChart Week 10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Iteration 1</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>Release 2</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
 </sst>
 </file>
@@ -340,16 +352,16 @@
                     <c:v>Week 9</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Week 6</c:v>
+                    <c:v>Week 10</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Week 7</c:v>
+                    <c:v>Week 11</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Week 8</c:v>
+                    <c:v>Week 12</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Week 9</c:v>
+                    <c:v>Week 13</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -445,16 +457,16 @@
                     <c:v>Week 9</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Week 6</c:v>
+                    <c:v>Week 10</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Week 7</c:v>
+                    <c:v>Week 11</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Week 8</c:v>
+                    <c:v>Week 12</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Week 9</c:v>
+                    <c:v>Week 13</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -514,24 +526,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80002048"/>
-        <c:axId val="94900992"/>
+        <c:axId val="79022720"/>
+        <c:axId val="53412224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80002048"/>
+        <c:axId val="79022720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94900992"/>
+        <c:crossAx val="53412224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94900992"/>
+        <c:axId val="53412224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,7 +551,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80002048"/>
+        <c:crossAx val="79022720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -548,7 +560,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -584,50 +596,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Connector 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="733425" y="2914650"/>
-          <a:ext cx="3933825" cy="1257300"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -921,7 +889,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1029,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1">
         <v>16</v>
@@ -1040,7 +1008,7 @@
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -1053,7 +1021,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -1064,7 +1032,7 @@
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>

--- a/com.blackout.solarpanelcalculator/docs/BurndownChart Week 10.xlsx
+++ b/com.blackout.solarpanelcalculator/docs/BurndownChart Week 10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Iteration 1</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Additions</t>
   </si>
 </sst>
 </file>
@@ -254,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,6 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,13 +421,13 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -521,29 +525,35 @@
                 <c:pt idx="5">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79022720"/>
-        <c:axId val="53412224"/>
+        <c:axId val="89553536"/>
+        <c:axId val="89639168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79022720"/>
+        <c:axId val="89553536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53412224"/>
+        <c:crossAx val="89639168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53412224"/>
+        <c:axId val="89639168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,7 +561,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79022720"/>
+        <c:crossAx val="89553536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -560,7 +570,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -886,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -899,15 +909,18 @@
     <col min="4" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="D1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="21" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
@@ -918,7 +931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -935,7 +948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="2" t="s">
@@ -948,7 +961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="13"/>
       <c r="B5" s="12" t="s">
         <v>1</v>
@@ -963,7 +976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="3" t="s">
@@ -976,7 +989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="16"/>
       <c r="B7" s="20" t="s">
         <v>10</v>
@@ -989,7 +1002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -1000,11 +1013,18 @@
         <v>14</v>
       </c>
       <c r="D8" s="1">
+        <f>16+F$8</f>
+        <v>24</v>
+      </c>
+      <c r="E8" s="4">
+        <f>8+F8</f>
         <v>16</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="F8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="2" t="s">
@@ -1013,9 +1033,11 @@
       <c r="D9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="13"/>
       <c r="B10" s="12" t="s">
         <v>12</v>
@@ -1024,11 +1046,11 @@
         <v>16</v>
       </c>
       <c r="D10" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="3" t="s">
